--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S13/S13_dampingfactor.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S13/S13_dampingfactor.xlsx
@@ -14,150 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.015929079824553292</t>
-  </si>
-  <si>
-    <t>0.024352907883289455</t>
-  </si>
-  <si>
-    <t>0.03784327842396105</t>
-  </si>
-  <si>
-    <t>0.06076417455330845</t>
-  </si>
-  <si>
-    <t>0.09292345699417642</t>
-  </si>
-  <si>
-    <t>0.1480317125787764</t>
-  </si>
-  <si>
-    <t>0.23015667289663222</t>
-  </si>
-  <si>
-    <t>0.35492411975210103</t>
-  </si>
-  <si>
-    <t>0.5759326178200608</t>
-  </si>
-  <si>
-    <t>0.9014795758207743</t>
-  </si>
-  <si>
-    <t>1.4138335586910702</t>
-  </si>
-  <si>
-    <t>2.163256468122286</t>
-  </si>
-  <si>
-    <t>3.448881648134134</t>
-  </si>
-  <si>
-    <t>5.364173718623547</t>
-  </si>
-  <si>
-    <t>8.482712817517916</t>
-  </si>
-  <si>
-    <t>13.856851202866778</t>
-  </si>
-  <si>
-    <t>21.205597439046635</t>
-  </si>
-  <si>
-    <t>33.533774749838564</t>
-  </si>
-  <si>
-    <t>51.316428431716176</t>
-  </si>
-  <si>
-    <t>83.14682750313659</t>
-  </si>
-  <si>
-    <t>128.27714944289033</t>
-  </si>
-  <si>
-    <t>202.76532816675046</t>
-  </si>
-  <si>
-    <t>320.6307351267095</t>
-  </si>
-  <si>
-    <t>0.693685178367552</t>
-  </si>
-  <si>
-    <t>0.7942071762354649</t>
-  </si>
-  <si>
-    <t>0.9203115156993832</t>
-  </si>
-  <si>
-    <t>1.0554881016630628</t>
-  </si>
-  <si>
-    <t>1.135871887422021</t>
-  </si>
-  <si>
-    <t>1.2223775356659834</t>
-  </si>
-  <si>
-    <t>1.2543298843948836</t>
-  </si>
-  <si>
-    <t>1.2915533993368329</t>
-  </si>
-  <si>
-    <t>1.2536108379884983</t>
-  </si>
-  <si>
-    <t>1.236476840790599</t>
-  </si>
-  <si>
-    <t>1.128082793757789</t>
-  </si>
-  <si>
-    <t>1.0744180923153182</t>
-  </si>
-  <si>
-    <t>0.9662789496781299</t>
-  </si>
-  <si>
-    <t>0.9134766470795013</t>
-  </si>
-  <si>
-    <t>0.8163705139934571</t>
-  </si>
-  <si>
-    <t>0.7704334794052554</t>
-  </si>
-  <si>
-    <t>0.7049126304494738</t>
-  </si>
-  <si>
-    <t>0.6299776664027107</t>
-  </si>
-  <si>
-    <t>0.5800489476360486</t>
-  </si>
-  <si>
-    <t>0.5445919255437879</t>
-  </si>
-  <si>
-    <t>0.5069233343765738</t>
-  </si>
-  <si>
-    <t>0.5000521943695742</t>
-  </si>
-  <si>
-    <t>0.45173837721619725</t>
+    <t>Damping factor</t>
   </si>
 </sst>
 </file>
@@ -530,187 +392,187 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
+      <c r="A2">
+        <v>0.01592907982455329</v>
+      </c>
+      <c r="B2">
+        <v>0.6936851783675519</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
+      <c r="A3">
+        <v>0.02435290788328946</v>
+      </c>
+      <c r="B3">
+        <v>0.7942071762354649</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
+      <c r="A4">
+        <v>0.03784327842396105</v>
+      </c>
+      <c r="B4">
+        <v>0.9203115156993832</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
+      <c r="A5">
+        <v>0.06076417455330845</v>
+      </c>
+      <c r="B5">
+        <v>1.055488101663063</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
+      <c r="A6">
+        <v>0.09292345699417642</v>
+      </c>
+      <c r="B6">
+        <v>1.135871887422021</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
+      <c r="A7">
+        <v>0.1480317125787764</v>
+      </c>
+      <c r="B7">
+        <v>1.222377535665983</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
+      <c r="A8">
+        <v>0.2301566728966322</v>
+      </c>
+      <c r="B8">
+        <v>1.254329884394884</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
+      <c r="A9">
+        <v>0.354924119752101</v>
+      </c>
+      <c r="B9">
+        <v>1.291553399336833</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
+      <c r="A10">
+        <v>0.5759326178200608</v>
+      </c>
+      <c r="B10">
+        <v>1.253610837988498</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
+      <c r="A11">
+        <v>0.9014795758207743</v>
+      </c>
+      <c r="B11">
+        <v>1.236476840790599</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
+      <c r="A12">
+        <v>1.41383355869107</v>
+      </c>
+      <c r="B12">
+        <v>1.128082793757789</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
+      <c r="A13">
+        <v>2.163256468122286</v>
+      </c>
+      <c r="B13">
+        <v>1.074418092315318</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
+      <c r="A14">
+        <v>3.448881648134134</v>
+      </c>
+      <c r="B14">
+        <v>0.9662789496781299</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
+      <c r="A15">
+        <v>5.364173718623547</v>
+      </c>
+      <c r="B15">
+        <v>0.9134766470795013</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
+      <c r="A16">
+        <v>8.482712817517916</v>
+      </c>
+      <c r="B16">
+        <v>0.8163705139934571</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
+      <c r="A17">
+        <v>13.85685120286678</v>
+      </c>
+      <c r="B17">
+        <v>0.7704334794052554</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
+      <c r="A18">
+        <v>21.20559743904663</v>
+      </c>
+      <c r="B18">
+        <v>0.7049126304494738</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
+      <c r="A19">
+        <v>33.53377474983856</v>
+      </c>
+      <c r="B19">
+        <v>0.6299776664027107</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
+      <c r="A20">
+        <v>51.31642843171618</v>
+      </c>
+      <c r="B20">
+        <v>0.5800489476360486</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
+      <c r="A21">
+        <v>83.14682750313659</v>
+      </c>
+      <c r="B21">
+        <v>0.5445919255437879</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
+      <c r="A22">
+        <v>128.2771494428903</v>
+      </c>
+      <c r="B22">
+        <v>0.5069233343765738</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
+      <c r="A23">
+        <v>202.7653281667505</v>
+      </c>
+      <c r="B23">
+        <v>0.5000521943695742</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
+      <c r="A24">
+        <v>320.6307351267095</v>
+      </c>
+      <c r="B24">
+        <v>0.4517383772161973</v>
       </c>
     </row>
   </sheetData>
